--- a/yabuki-a/PM演習矢吹a/コスト見積もり.xlsx
+++ b/yabuki-a/PM演習矢吹a/コスト見積もり.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,8 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>wakatsuki</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>wakatsuki:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
   <si>
     <t>ログイン</t>
     <phoneticPr fontId="2"/>
@@ -360,6 +397,230 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン機能作成</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー機能作成</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト機能作成</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻る機能作成</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新機能作成</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初回登録機能作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラム承認</t>
+    <rPh sb="5" eb="7">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト報告書承認</t>
+    <rPh sb="3" eb="6">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マニュアル作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マニュアル承認</t>
+    <rPh sb="5" eb="7">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書作成</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書承認</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予備費（20%</t>
+    <rPh sb="0" eb="3">
+      <t>ヨビヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業単位</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予想工期（時間）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予想費用（円）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -368,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +652,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +683,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -469,13 +752,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,6 +900,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,23 +920,1823 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="282">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -807,10 +3012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="E38" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:Y75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,22 +3023,22 @@
     <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
@@ -847,22 +3052,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
@@ -876,20 +3081,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
@@ -903,20 +3108,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
@@ -930,20 +3135,20 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
@@ -957,22 +3162,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
@@ -986,20 +3191,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1013,20 +3218,20 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1040,20 +3245,20 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1067,22 +3272,22 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1096,22 +3301,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1125,22 +3330,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1154,22 +3359,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +3388,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1219,7 +3424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L15" t="s">
         <v>46</v>
       </c>
@@ -1230,7 +3435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1249,24 +3454,27 @@
       <c r="R16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1299,18 +3507,21 @@
       <c r="R17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C18" s="14" t="s">
+      <c r="S17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1334,21 +3545,24 @@
       <c r="P18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1372,18 +3586,21 @@
       <c r="Q19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C20" s="14" t="s">
+      <c r="S19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1404,8 +3621,11 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
@@ -1442,21 +3662,24 @@
       <c r="P21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="15"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1477,18 +3700,21 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="14" t="s">
+      <c r="S22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="15"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1509,18 +3735,21 @@
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="14" t="s">
+      <c r="S23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="15"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1541,18 +3770,21 @@
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="14" t="s">
+      <c r="S24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="2" t="s">
         <v>1</v>
       </c>
@@ -1574,20 +3806,20 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +3841,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C27" s="13" t="s">
         <v>19</v>
       </c>
@@ -1641,7 +3873,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="K28" s="9" t="s">
         <v>58</v>
       </c>
@@ -1660,7 +3892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="K29" t="s">
         <v>70</v>
       </c>
@@ -1678,7 +3910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
         <v>64</v>
       </c>
@@ -1692,12 +3924,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D32">
         <f>360/160</f>
         <v>2.25</v>
@@ -1707,7 +3939,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1718,7 +3950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1728,39 +3960,1238 @@
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="M35" s="25"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <f>SUM(C38:X75)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36">
+        <f>E36*G36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>93</v>
+      </c>
+      <c r="M36">
+        <f>J36*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O36">
+        <f>J36+M36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C38" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C39" s="24"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C40" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C41" s="24"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C42" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C43" s="24"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C44" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C45" s="24"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C46" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C47" s="24"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C48" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C49" s="24"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C50" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C51" s="24"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C52" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C53" s="24"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C54" s="23"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C55" s="24"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C56" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C57" s="24"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C58" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C59" s="24"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C60" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C61" s="24"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C62" s="23"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C63" s="24"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C64" s="23"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C65" s="24"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C66" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C67" s="24"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+    </row>
+    <row r="68" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C68" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C69" s="24"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C70" s="23"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C71" s="24"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C72" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C73" s="24"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+    </row>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C74" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C75" s="24"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C77" s="23"/>
+    </row>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C78" s="24"/>
+    </row>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C79" s="23"/>
+    </row>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.15">
+      <c r="C80" s="24"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" s="24"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C83" s="23"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C84" s="24"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C85" s="23"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C86" s="24"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C88" s="24"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C89" s="23"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C90" s="24"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C92" s="24"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C93" s="23"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C94" s="24"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C95" s="23"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C96" s="24"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="23"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C98" s="24"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C99" s="23"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C100" s="24"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C101" s="23"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C102" s="24"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C103" s="23"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C104" s="24"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C105" s="23"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C106" s="24"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C107" s="23"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C108" s="24"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C109" s="23"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C110" s="24"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C111" s="23"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C112" s="24"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C113" s="23"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C114" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
+  <mergeCells count="98">
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:I14"/>
@@ -1771,29 +5202,457 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="3">
+  <conditionalFormatting sqref="D38:X53">
+    <cfRule type="expression" dxfId="103" priority="100">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="101">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="102">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:X52 D50:X50 D48:X48 D38:X38 D46:X46 D44:X44 D40:X40 D42:X42">
+    <cfRule type="expression" dxfId="100" priority="99">
+      <formula>D38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:X53 D51:X51 D49:X49 D39:X39 D47:X47 D45:X45 D43:X43 D41:X41">
+    <cfRule type="expression" dxfId="99" priority="98">
+      <formula>D39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:X59">
+    <cfRule type="expression" dxfId="98" priority="95">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="96">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="97">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:X54 D58:X58 D56:X56">
+    <cfRule type="expression" dxfId="95" priority="94">
+      <formula>D54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:X55 D59:X59 D57:X57">
+    <cfRule type="expression" dxfId="94" priority="93">
+      <formula>D55&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T38:X51">
+    <cfRule type="expression" dxfId="93" priority="90">
+      <formula>ISERROR(MATCH(T$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="91">
+      <formula>WEEKDAY(T$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="92">
+      <formula>WEEKDAY(T$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50:X50 T48:X48 T40:X40 T38:X38 T46:X46 T44:X44 T42:X42">
+    <cfRule type="expression" dxfId="90" priority="89">
+      <formula>T38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T51:X51 T49:X49 T39:X39 T41:X41 T43:X43 T47:X47 T45:X45">
+    <cfRule type="expression" dxfId="89" priority="88">
+      <formula>T39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:X39">
+    <cfRule type="expression" dxfId="88" priority="85">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="86">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="87">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:X38">
+    <cfRule type="expression" dxfId="85" priority="84">
+      <formula>D38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:X39">
+    <cfRule type="expression" dxfId="84" priority="83">
+      <formula>D39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:X39">
+    <cfRule type="expression" dxfId="83" priority="80">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="81">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="82">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:X38">
+    <cfRule type="expression" dxfId="80" priority="79">
+      <formula>D38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:X39">
+    <cfRule type="expression" dxfId="79" priority="78">
+      <formula>D39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:X41">
+    <cfRule type="expression" dxfId="78" priority="75">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="76">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="77">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:X40">
+    <cfRule type="expression" dxfId="75" priority="74">
+      <formula>D40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:X41">
+    <cfRule type="expression" dxfId="74" priority="73">
+      <formula>D41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:X43">
+    <cfRule type="expression" dxfId="73" priority="70">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="71">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:X42">
+    <cfRule type="expression" dxfId="70" priority="69">
+      <formula>D42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:X43">
+    <cfRule type="expression" dxfId="69" priority="68">
+      <formula>D43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:X39">
+    <cfRule type="expression" dxfId="68" priority="65">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="66">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="67">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:X38">
+    <cfRule type="expression" dxfId="65" priority="64">
+      <formula>D38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:X39">
+    <cfRule type="expression" dxfId="64" priority="63">
+      <formula>D39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:X41">
+    <cfRule type="expression" dxfId="63" priority="60">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="61">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="62">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:X40">
+    <cfRule type="expression" dxfId="60" priority="59">
+      <formula>D40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:X41">
+    <cfRule type="expression" dxfId="59" priority="58">
+      <formula>D41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60:X75">
+    <cfRule type="expression" dxfId="58" priority="55">
+      <formula>ISERROR(MATCH(D$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="56">
+      <formula>WEEKDAY(D$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="57">
+      <formula>WEEKDAY(D$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:X68 D66:X66 D64:X64 D62:X62 D60:X60 D70:X70 D74:X74 D72:X72">
+    <cfRule type="expression" dxfId="55" priority="54">
+      <formula>D60&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:X71 D69:X69 D67:X67 D65:X65 D63:X63 D61:X61 D75:X75 D73:X73">
+    <cfRule type="expression" dxfId="54" priority="53">
+      <formula>D61&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:C92">
+    <cfRule type="expression" dxfId="53" priority="51">
+      <formula>$I91="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>$I91="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C94">
+    <cfRule type="expression" dxfId="51" priority="49">
+      <formula>$I93="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="50">
+      <formula>$I93="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95:C96">
+    <cfRule type="expression" dxfId="49" priority="47">
+      <formula>$I95="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$I95="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97:C98">
+    <cfRule type="expression" dxfId="47" priority="45">
+      <formula>$I97="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$I97="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:C78">
+    <cfRule type="expression" dxfId="45" priority="43">
+      <formula>$I77="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>$I77="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C90">
+    <cfRule type="expression" dxfId="43" priority="41">
+      <formula>$I89="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="42">
+      <formula>$I89="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79:C80">
+    <cfRule type="expression" dxfId="41" priority="39">
+      <formula>$I79="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>$I79="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C88">
+    <cfRule type="expression" dxfId="39" priority="37">
+      <formula>$I81="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>$I81="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:C112">
+    <cfRule type="expression" dxfId="37" priority="35">
+      <formula>$I111="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$I111="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113:C114">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>$I113="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>$I113="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109:C110">
+    <cfRule type="expression" dxfId="33" priority="31">
+      <formula>$I109="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>$I109="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99:C100">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>$I99="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>$I99="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:C108">
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>$I101="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$I101="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C53">
+    <cfRule type="expression" dxfId="27" priority="25">
+      <formula>$I52="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>$I52="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C55">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>$I54="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$I54="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>$I56="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$I56="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:C59">
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$I58="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$I58="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C39">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>$I38="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$I38="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>$I50="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I50="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>$I40="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I40="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C49">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$I42="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I42="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72:C73">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>$I72="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$I72="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74:C75">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$I74="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$I74="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C71">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$I70="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$I70="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C61">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$I60="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$I60="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:C69">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$I62="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$I62="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J13 I17:I26">
       <formula1>"入力,出力,処理,その他"</formula1>
     </dataValidation>
@@ -1803,8 +5662,440 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L13 K17:K26">
       <formula1>"小,中,大"</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="1～50までの整数を入力して下さい" sqref="D38:X75">
+      <formula1>0</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <f>B2*1000</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="C3">
+        <f t="shared" ref="C3:C39" si="0">B3*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="23"/>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="24"/>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="23"/>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="24"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="24"/>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="24"/>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="23"/>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="24"/>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="24"/>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="24"/>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A2:A39">
+    <cfRule type="expression" dxfId="1" priority="103">
+      <formula>#REF!="遂行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="104">
+      <formula>#REF!="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/yabuki-a/PM演習矢吹a/コスト見積もり.xlsx
+++ b/yabuki-a/PM演習矢吹a/コスト見積もり.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -899,27 +899,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -944,6 +923,9 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -952,14 +934,32 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="282">
+  <dxfs count="104">
     <dxf>
       <font>
         <strike/>
@@ -970,1135 +970,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3014,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView topLeftCell="E38" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:Y75"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3025,20 +1896,20 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3054,20 +1925,20 @@
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3083,18 +1954,18 @@
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3110,18 +1981,18 @@
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3137,18 +2008,18 @@
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3164,20 +2035,20 @@
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3193,18 +2064,18 @@
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3220,18 +2091,18 @@
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3247,18 +2118,18 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3274,20 +2145,20 @@
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3303,20 +2174,20 @@
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
@@ -3336,16 +2207,16 @@
         <v>53</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3365,16 +2236,16 @@
         <v>42</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="2" t="s">
         <v>1</v>
       </c>
@@ -3390,18 +2261,18 @@
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="5" t="s">
         <v>4</v>
       </c>
@@ -3465,16 +2336,16 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
@@ -3512,16 +2383,16 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
@@ -3553,16 +2424,16 @@
       <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3591,16 +2462,16 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="2" t="s">
         <v>5</v>
       </c>
@@ -3670,16 +2541,16 @@
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="2" t="s">
         <v>1</v>
       </c>
@@ -3705,16 +2576,16 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="2" t="s">
         <v>4</v>
       </c>
@@ -3740,16 +2611,16 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="2" t="s">
         <v>5</v>
       </c>
@@ -3775,16 +2646,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="2" t="s">
         <v>1</v>
       </c>
@@ -3810,16 +2681,16 @@
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="15"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="2" t="s">
         <v>1</v>
       </c>
@@ -3842,16 +2713,16 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="5" t="s">
         <v>4</v>
       </c>
@@ -3960,7 +2831,7 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="M35" s="25"/>
+      <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E36">
@@ -3999,1148 +2870,1216 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
       <c r="Y38">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C39" s="24"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
       <c r="Y40">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C41" s="24"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
       <c r="Y42">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C43" s="24"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
       <c r="Y44">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C45" s="24"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
       <c r="Y46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C47" s="24"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
       <c r="Y48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C49" s="24"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
       <c r="Y49">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
       <c r="Y50">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C51" s="24"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
     </row>
     <row r="52" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
       <c r="Y52">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C53" s="24"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
       <c r="Y53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C54" s="23"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
       <c r="Y54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C55" s="24"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
     </row>
     <row r="56" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
       <c r="Y56">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C57" s="24"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
     </row>
     <row r="58" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
       <c r="Y58">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C59" s="24"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
     </row>
     <row r="60" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
       <c r="Y60">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C61" s="24"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
       <c r="Y61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C62" s="23"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
       <c r="Y62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C63" s="24"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
       <c r="Y63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C64" s="23"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
       <c r="Y64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C65" s="24"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
-      <c r="X65" s="20"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
       <c r="Y65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
       <c r="Y66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C67" s="24"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="20"/>
-      <c r="X67" s="20"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
     </row>
     <row r="68" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
       <c r="Y68">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C69" s="24"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="20"/>
-      <c r="X69" s="20"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
       <c r="Y69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C70" s="23"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
       <c r="Y70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C71" s="24"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20"/>
-      <c r="X71" s="20"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
     </row>
     <row r="72" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
       <c r="Y72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C73" s="24"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="20"/>
-      <c r="W73" s="20"/>
-      <c r="X73" s="20"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
     </row>
     <row r="74" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
       <c r="Y74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C75" s="24"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="20"/>
-      <c r="W75" s="20"/>
-      <c r="X75" s="20"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
       <c r="Y75">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C77" s="23"/>
+      <c r="C77" s="17"/>
     </row>
     <row r="78" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C78" s="24"/>
+      <c r="C78" s="18"/>
     </row>
     <row r="79" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C79" s="23"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C80" s="24"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="23"/>
+      <c r="C81" s="17"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="24"/>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C83" s="23"/>
+      <c r="C83" s="17"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="24"/>
+      <c r="C84" s="18"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="23"/>
+      <c r="C85" s="17"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C86" s="24"/>
+      <c r="C86" s="18"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C87" s="23"/>
+      <c r="C87" s="17"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C88" s="24"/>
+      <c r="C88" s="18"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="23"/>
+      <c r="C89" s="17"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C90" s="24"/>
+      <c r="C90" s="18"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="23"/>
+      <c r="C91" s="17"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="24"/>
+      <c r="C92" s="18"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C93" s="23"/>
+      <c r="C93" s="17"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="24"/>
+      <c r="C94" s="18"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="23"/>
+      <c r="C95" s="17"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="24"/>
+      <c r="C96" s="18"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="23"/>
+      <c r="C97" s="17"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" s="24"/>
+      <c r="C98" s="18"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="23"/>
+      <c r="C99" s="17"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="24"/>
+      <c r="C100" s="18"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="23"/>
+      <c r="C101" s="17"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="24"/>
+      <c r="C102" s="18"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="23"/>
+      <c r="C103" s="17"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="24"/>
+      <c r="C104" s="18"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="23"/>
+      <c r="C105" s="17"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C106" s="24"/>
+      <c r="C106" s="18"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="23"/>
+      <c r="C107" s="17"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C108" s="24"/>
+      <c r="C108" s="18"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="23"/>
+      <c r="C109" s="17"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="24"/>
+      <c r="C110" s="18"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="23"/>
+      <c r="C111" s="17"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="24"/>
+      <c r="C112" s="18"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="23"/>
+      <c r="C113" s="17"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="24"/>
+      <c r="C114" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="C109:C110"/>
     <mergeCell ref="C111:C112"/>
@@ -5157,81 +4096,13 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D38:X53">
@@ -5676,8 +4547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5698,7 +4569,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B2">
@@ -5710,14 +4581,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="18"/>
       <c r="C3">
         <f t="shared" ref="C3:C39" si="0">B3*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B4">
@@ -5729,14 +4600,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="18"/>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B6">
@@ -5748,14 +4619,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="18"/>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B8">
@@ -5767,14 +4638,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="18"/>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B10">
@@ -5786,14 +4657,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
+      <c r="A11" s="18"/>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B12">
@@ -5805,7 +4676,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="18"/>
       <c r="B13">
         <v>6</v>
       </c>
@@ -5815,7 +4686,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B14">
@@ -5827,14 +4698,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
+      <c r="A15" s="18"/>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B16">
@@ -5846,7 +4717,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
+      <c r="A17" s="18"/>
       <c r="B17">
         <v>0</v>
       </c>
@@ -5856,7 +4727,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="17"/>
       <c r="B18">
         <v>0</v>
       </c>
@@ -5866,14 +4737,14 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
+      <c r="A19" s="18"/>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B20">
@@ -5885,14 +4756,14 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
+      <c r="A21" s="18"/>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B22">
@@ -5904,14 +4775,14 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
+      <c r="A23" s="18"/>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B24">
@@ -5923,7 +4794,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
+      <c r="A25" s="18"/>
       <c r="B25">
         <v>0</v>
       </c>
@@ -5933,7 +4804,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
+      <c r="A26" s="17"/>
       <c r="B26">
         <v>0</v>
       </c>
@@ -5943,7 +4814,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
+      <c r="A27" s="18"/>
       <c r="B27">
         <v>0</v>
       </c>
@@ -5953,7 +4824,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
+      <c r="A28" s="17"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -5963,10 +4834,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B30">
@@ -5978,14 +4849,14 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
+      <c r="A31" s="18"/>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B32">
@@ -5997,7 +4868,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="24"/>
+      <c r="A33" s="18"/>
       <c r="B33">
         <v>0</v>
       </c>
@@ -6007,7 +4878,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="23"/>
+      <c r="A34" s="17"/>
       <c r="B34">
         <v>0</v>
       </c>
@@ -6017,14 +4888,14 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
+      <c r="A35" s="18"/>
       <c r="C35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B36">
@@ -6036,14 +4907,14 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="24"/>
+      <c r="A37" s="18"/>
       <c r="C37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B38">
@@ -6055,7 +4926,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
+      <c r="A39" s="18"/>
       <c r="B39">
         <v>0</v>
       </c>
@@ -6066,6 +4937,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -6073,18 +4956,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:A39">

--- a/yabuki-a/PM演習矢吹a/コスト見積もり.xlsx
+++ b/yabuki-a/PM演習矢吹a/コスト見積もり.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="103">
   <si>
     <t>ログイン</t>
     <phoneticPr fontId="2"/>
@@ -621,6 +622,78 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>滞在画面</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初回登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初回登録成功画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初回登録失敗画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -926,13 +999,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -943,17 +1020,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1883,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y114"/>
+  <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1896,20 +1969,20 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1925,20 +1998,20 @@
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1954,18 +2027,18 @@
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1981,18 +2054,18 @@
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="24"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2008,18 +2081,18 @@
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="24"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2035,20 +2108,20 @@
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2064,18 +2137,18 @@
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2091,18 +2164,18 @@
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2118,18 +2191,18 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2145,20 +2218,20 @@
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2174,20 +2247,20 @@
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2207,16 +2280,16 @@
         <v>53</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2236,16 +2309,16 @@
         <v>42</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="2" t="s">
         <v>1</v>
       </c>
@@ -2261,18 +2334,18 @@
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="5" t="s">
         <v>4</v>
       </c>
@@ -2336,16 +2409,16 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2383,16 +2456,16 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="23" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2424,16 +2497,16 @@
       <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2462,16 +2535,16 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="23" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2541,16 +2614,16 @@
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2576,16 +2649,16 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2611,16 +2684,16 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="2" t="s">
         <v>5</v>
       </c>
@@ -2646,16 +2719,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2681,16 +2754,16 @@
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="20"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2713,16 +2786,16 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="5" t="s">
         <v>4</v>
       </c>
@@ -2835,8 +2908,8 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E36">
-        <f>SUM(C38:X75)</f>
-        <v>0</v>
+        <f>SUM(C38:C38:Y75)</f>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
         <v>74</v>
@@ -2852,25 +2925,25 @@
       </c>
       <c r="J36">
         <f>E36*G36</f>
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="L36" t="s">
         <v>93</v>
       </c>
       <c r="M36">
         <f>J36*0.2</f>
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="N36" t="s">
         <v>92</v>
       </c>
       <c r="O36">
         <f>J36+M36</f>
-        <v>0</v>
+        <v>99600</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="24" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="10"/>
@@ -2899,7 +2972,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C39" s="18"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -2923,7 +2996,7 @@
       <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D40" s="10"/>
@@ -2952,7 +3025,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C41" s="18"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -2976,7 +3049,7 @@
       <c r="X41" s="13"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="24" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="10"/>
@@ -3005,7 +3078,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C43" s="18"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -3029,7 +3102,7 @@
       <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="24" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="10"/>
@@ -3058,7 +3131,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C45" s="18"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -3082,7 +3155,7 @@
       <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="10"/>
@@ -3111,7 +3184,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C47" s="18"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -3135,7 +3208,7 @@
       <c r="X47" s="13"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="10"/>
@@ -3159,12 +3232,9 @@
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
-      <c r="Y48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C49" s="18"/>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C49" s="25"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -3187,11 +3257,11 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
       <c r="Y49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C50" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C50" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="10"/>
@@ -3219,8 +3289,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C51" s="18"/>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C51" s="25"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -3243,8 +3313,8 @@
       <c r="W51" s="13"/>
       <c r="X51" s="13"/>
     </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C52" s="17" t="s">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C52" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D52" s="10"/>
@@ -3272,8 +3342,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C53" s="18"/>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C53" s="25"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -3298,9 +3368,13 @@
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C54" s="17"/>
+      <c r="Z53">
+        <f>SUM(Y38:Y53)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C54" s="24"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -3326,8 +3400,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C55" s="18"/>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C55" s="25"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -3350,8 +3424,8 @@
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
     </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C56" s="17" t="s">
+    <row r="56" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C56" s="24" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="10"/>
@@ -3379,8 +3453,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C57" s="18"/>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C57" s="25"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
@@ -3403,8 +3477,8 @@
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C58" s="17" t="s">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C58" s="24" t="s">
         <v>84</v>
       </c>
       <c r="D58" s="10"/>
@@ -3432,8 +3506,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C59" s="18"/>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C59" s="25"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -3456,8 +3530,8 @@
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C60" s="17" t="s">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C60" s="24" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="10"/>
@@ -3485,8 +3559,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C61" s="18"/>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C61" s="25"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
@@ -3512,8 +3586,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C62" s="17"/>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C62" s="24"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -3539,8 +3613,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C63" s="18"/>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C63" s="25"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
@@ -3566,8 +3640,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C64" s="17"/>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C64" s="24"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -3594,7 +3668,7 @@
       </c>
     </row>
     <row r="65" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C65" s="18"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
@@ -3621,7 +3695,7 @@
       </c>
     </row>
     <row r="66" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="24" t="s">
         <v>86</v>
       </c>
       <c r="D66" s="10"/>
@@ -3650,7 +3724,7 @@
       </c>
     </row>
     <row r="67" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C67" s="18"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
@@ -3674,7 +3748,7 @@
       <c r="X67" s="13"/>
     </row>
     <row r="68" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D68" s="10"/>
@@ -3703,7 +3777,7 @@
       </c>
     </row>
     <row r="69" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C69" s="18"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
@@ -3730,7 +3804,7 @@
       </c>
     </row>
     <row r="70" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C70" s="17"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -3757,7 +3831,7 @@
       </c>
     </row>
     <row r="71" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C71" s="18"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -3781,7 +3855,7 @@
       <c r="X71" s="13"/>
     </row>
     <row r="72" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="24" t="s">
         <v>88</v>
       </c>
       <c r="D72" s="10"/>
@@ -3810,7 +3884,7 @@
       </c>
     </row>
     <row r="73" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C73" s="18"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
@@ -3834,7 +3908,7 @@
       <c r="X73" s="13"/>
     </row>
     <row r="74" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="24" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="10"/>
@@ -3863,7 +3937,7 @@
       </c>
     </row>
     <row r="75" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C75" s="18"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -3890,196 +3964,128 @@
       </c>
     </row>
     <row r="77" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C77" s="17"/>
+      <c r="C77" s="24"/>
     </row>
     <row r="78" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C78" s="18"/>
+      <c r="C78" s="25"/>
     </row>
     <row r="79" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C79" s="17"/>
+      <c r="C79" s="24"/>
     </row>
     <row r="80" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C80" s="18"/>
+      <c r="C80" s="25"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="17"/>
+      <c r="C81" s="24"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="18"/>
+      <c r="C82" s="25"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C83" s="17"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="18"/>
+      <c r="C84" s="25"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="17"/>
+      <c r="C85" s="24"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C86" s="18"/>
+      <c r="C86" s="25"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C87" s="17"/>
+      <c r="C87" s="24"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C88" s="18"/>
+      <c r="C88" s="25"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="17"/>
+      <c r="C89" s="24"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C90" s="18"/>
+      <c r="C90" s="25"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="17"/>
+      <c r="C91" s="24"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="18"/>
+      <c r="C92" s="25"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C93" s="17"/>
+      <c r="C93" s="24"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="18"/>
+      <c r="C94" s="25"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="17"/>
+      <c r="C95" s="24"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="18"/>
+      <c r="C96" s="25"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="17"/>
+      <c r="C97" s="24"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" s="18"/>
+      <c r="C98" s="25"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="17"/>
+      <c r="C99" s="24"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="18"/>
+      <c r="C100" s="25"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="17"/>
+      <c r="C101" s="24"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="18"/>
+      <c r="C102" s="25"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="17"/>
+      <c r="C103" s="24"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="18"/>
+      <c r="C104" s="25"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="17"/>
+      <c r="C105" s="24"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C106" s="18"/>
+      <c r="C106" s="25"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="17"/>
+      <c r="C107" s="24"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C108" s="18"/>
+      <c r="C108" s="25"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="17"/>
+      <c r="C109" s="24"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="18"/>
+      <c r="C110" s="25"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="17"/>
+      <c r="C111" s="24"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="18"/>
+      <c r="C112" s="25"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="17"/>
+      <c r="C113" s="24"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="18"/>
+      <c r="C114" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="C109:C110"/>
     <mergeCell ref="C111:C112"/>
@@ -4096,13 +4102,81 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D38:X53">
@@ -4544,11 +4618,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4569,7 +4689,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B2">
@@ -4581,14 +4701,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+      <c r="A3" s="25"/>
       <c r="C3">
         <f t="shared" ref="C3:C39" si="0">B3*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B4">
@@ -4600,14 +4720,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
+      <c r="A5" s="25"/>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B6">
@@ -4619,14 +4739,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
+      <c r="A7" s="25"/>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B8">
@@ -4638,14 +4758,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
+      <c r="A9" s="25"/>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B10">
@@ -4657,14 +4777,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+      <c r="A11" s="25"/>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B12">
@@ -4676,7 +4796,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
       <c r="B13">
         <v>6</v>
       </c>
@@ -4686,7 +4806,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B14">
@@ -4698,14 +4818,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B16">
@@ -4716,8 +4836,8 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
       <c r="B17">
         <v>0</v>
       </c>
@@ -4725,9 +4845,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="D17">
+        <f>SUM(B2:B17)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
       <c r="B18">
         <v>0</v>
       </c>
@@ -4735,16 +4859,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <f>SUM(E18:G18)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B20">
@@ -4755,15 +4892,15 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B22">
@@ -4774,15 +4911,15 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B24">
@@ -4792,9 +4929,22 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f>SUM(E24:G24)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
       <c r="B25">
         <v>0</v>
       </c>
@@ -4802,9 +4952,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
+      <c r="H25">
+        <f>SUM(H18:H24)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="24"/>
       <c r="B26">
         <v>0</v>
       </c>
@@ -4812,9 +4966,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
+      <c r="H26">
+        <f>H25*1.2</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
       <c r="B27">
         <v>0</v>
       </c>
@@ -4823,8 +4981,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -4833,11 +4991,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B30">
@@ -4848,15 +5006,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="25"/>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B32">
@@ -4868,7 +5026,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
+      <c r="A33" s="25"/>
       <c r="B33">
         <v>0</v>
       </c>
@@ -4878,7 +5036,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
+      <c r="A34" s="24"/>
       <c r="B34">
         <v>0</v>
       </c>
@@ -4888,14 +5046,14 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
+      <c r="A35" s="25"/>
       <c r="C35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B36">
@@ -4907,14 +5065,14 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
+      <c r="A37" s="25"/>
       <c r="C37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B38">
@@ -4926,7 +5084,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
+      <c r="A39" s="25"/>
       <c r="B39">
         <v>0</v>
       </c>
@@ -4937,6 +5095,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -4949,13 +5114,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:A39">
